--- a/task_list_back/src/task_list.xlsx
+++ b/task_list_back/src/task_list.xlsx
@@ -4,14 +4,142 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="levi" sheetId="1" r:id="rId1"/>
+    <sheet name="ben" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t>cont-5184</t>
+  </si>
+  <si>
+    <t>cont-5203</t>
+  </si>
+  <si>
+    <t>cont-5239</t>
+  </si>
+  <si>
+    <t>cont-5240</t>
+  </si>
+  <si>
+    <t>cont-5233</t>
+  </si>
+  <si>
+    <t>cont-5252</t>
+  </si>
+  <si>
+    <t>cont-5272</t>
+  </si>
+  <si>
+    <t>cont-5269</t>
+  </si>
+  <si>
+    <t>cont-5309</t>
+  </si>
+  <si>
+    <t>cont-5324</t>
+  </si>
+  <si>
+    <t>cont-5327</t>
+  </si>
+  <si>
+    <t>cont-5352</t>
+  </si>
+  <si>
+    <t>cont-5370</t>
+  </si>
+  <si>
+    <t>cont-5405</t>
+  </si>
+  <si>
+    <t>cont-5423</t>
+  </si>
+  <si>
+    <t>cont-5434</t>
+  </si>
+  <si>
+    <t>cont-5445</t>
+  </si>
+  <si>
+    <t>cont-5471</t>
+  </si>
+  <si>
+    <t>cont-5473</t>
+  </si>
+  <si>
+    <t>cont-5487</t>
+  </si>
+  <si>
+    <t>cont-5511</t>
+  </si>
+  <si>
+    <t>cont-5536</t>
+  </si>
+  <si>
+    <t>CONT-5188</t>
+  </si>
+  <si>
+    <t>cont-5180</t>
+  </si>
+  <si>
+    <t>cont-5182</t>
+  </si>
+  <si>
+    <t>cont-5196</t>
+  </si>
+  <si>
+    <t>cont-5261</t>
+  </si>
+  <si>
+    <t>cont-5310</t>
+  </si>
+  <si>
+    <t>cont-5294</t>
+  </si>
+  <si>
+    <t>cont-5293</t>
+  </si>
+  <si>
+    <t>cont-5322</t>
+  </si>
+  <si>
+    <t>cont-5379</t>
+  </si>
+  <si>
+    <t>cont-5382</t>
+  </si>
+  <si>
+    <t>cont-5395</t>
+  </si>
+  <si>
+    <t>cont-5396</t>
+  </si>
+  <si>
+    <t>cont-5446</t>
+  </si>
+  <si>
+    <t>cont-5455</t>
+  </si>
+  <si>
+    <t>cont-5480</t>
+  </si>
+  <si>
+    <t>cont-5490</t>
+  </si>
+  <si>
+    <t>cont-5512</t>
+  </si>
+  <si>
+    <t>cont-5538</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -52,8 +180,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -386,32 +517,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>776</v>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -423,32 +644,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>2</v>
+      <c r="A1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>3</v>
+      <c r="A2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>4</v>
+      <c r="A3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>5</v>
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
